--- a/uploads/new.xlsx
+++ b/uploads/new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EFDE6A-A12B-4272-BE89-DA29617E6B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05ABAFC-757B-4220-A3F8-DB10ABE057C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E24850FA-EFAA-458B-B9D5-233B943DE7B8}"/>
   </bookViews>
@@ -86,33 +86,9 @@
     <t>Hà Minh Tiến</t>
   </si>
   <si>
-    <t>Đinh Thụy Yến  Nhi</t>
-  </si>
-  <si>
-    <t>Hồ Minh  Danh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thùy  Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Duy  Khánh </t>
-  </si>
-  <si>
     <t>Nguyễn Thị Giang Nghi</t>
   </si>
   <si>
-    <t xml:space="preserve">Phùng Thị Như  Quỳnh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Tấn  Tài </t>
-  </si>
-  <si>
-    <t>Thái Lê Sông  Tiền</t>
-  </si>
-  <si>
-    <t>Lê Cẩm  Tiên</t>
-  </si>
-  <si>
     <t>Ngô Văn Tấn Lực</t>
   </si>
   <si>
@@ -167,30 +143,15 @@
     <t>Nguyễn Thanh Bảo</t>
   </si>
   <si>
-    <t>Lê Ngọc Huy  Danh</t>
-  </si>
-  <si>
-    <t>Lê Chí  Khang</t>
-  </si>
-  <si>
-    <t>Nguyễn Nam  Khôi</t>
-  </si>
-  <si>
     <t>Phạm Thị Diệu Linh</t>
   </si>
   <si>
     <t>Nguyễn Thảo My</t>
   </si>
   <si>
-    <t>Nguyễn Thị Kiều  Nhi</t>
-  </si>
-  <si>
     <t>Nguyễn Tự Minh Tân</t>
   </si>
   <si>
-    <t>Trần Huy  Tín</t>
-  </si>
-  <si>
     <t>Huỳnh Phạm Hoài An</t>
   </si>
   <si>
@@ -236,54 +197,21 @@
     <t>Nguyễn Diệp Tường Vân</t>
   </si>
   <si>
-    <t>Phan Ngọc Kiều  Anh</t>
-  </si>
-  <si>
     <t>Nguyễn Quốc Duy Bình</t>
   </si>
   <si>
-    <t>Nguyễn Hoàng Lương  Ngọc</t>
-  </si>
-  <si>
-    <t>Bùi Thị Hồng  Nhung</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Minh  Trang</t>
-  </si>
-  <si>
-    <t>Nguyễn Duy Trí  Đức</t>
-  </si>
-  <si>
     <t>Nguyễn Nhật Hân</t>
   </si>
   <si>
     <t>Tạ Thi Mai Loan</t>
   </si>
   <si>
-    <t>Nguyễn Đắc  Mạnh</t>
-  </si>
-  <si>
-    <t>Hồ Xuân  Tây</t>
-  </si>
-  <si>
-    <t>Nguyễn Trọng  Toàn</t>
-  </si>
-  <si>
     <t>Đinh Thị Kim Cương</t>
   </si>
   <si>
-    <t>Phạm Gia  Hân</t>
-  </si>
-  <si>
-    <t>Nhâm Gia  Hoàng</t>
-  </si>
-  <si>
     <t>Huỳnh Lê Quốc Huy</t>
   </si>
   <si>
-    <t>Huỳnh Võ Gia  Khánh</t>
-  </si>
-  <si>
     <t>Cao Vân Khánh</t>
   </si>
   <si>
@@ -293,9 +221,6 @@
     <t>Nguyễn Bình Phương Thuý</t>
   </si>
   <si>
-    <t>Khúc Minh Bảo  Trâm </t>
-  </si>
-  <si>
     <t>Phạm Gia Hớn</t>
   </si>
   <si>
@@ -591,6 +516,81 @@
   </si>
   <si>
     <t>1,91</t>
+  </si>
+  <si>
+    <t>Đinh Thụy Yến Nhi</t>
+  </si>
+  <si>
+    <t>Hồ Minh Danh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thùy Dương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Duy Khánh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phùng Thị Như Quỳnh </t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Tài</t>
+  </si>
+  <si>
+    <t>Thái Lê Sông Tiền</t>
+  </si>
+  <si>
+    <t>Lê Cẩm Tiên</t>
+  </si>
+  <si>
+    <t>Lê Ngọc Huy Danh</t>
+  </si>
+  <si>
+    <t>Nguyễn Nam Khôi</t>
+  </si>
+  <si>
+    <t>Phạm Gia Hân</t>
+  </si>
+  <si>
+    <t>Nhâm Gia Hoàng</t>
+  </si>
+  <si>
+    <t>Huỳnh Võ Gia Khánh</t>
+  </si>
+  <si>
+    <t>Khúc Minh Bảo Trâm </t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Toàn</t>
+  </si>
+  <si>
+    <t>Hồ Xuân Tây</t>
+  </si>
+  <si>
+    <t>Nguyễn Đắc Mạnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Trí Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Minh Trang</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Lương Ngọc</t>
+  </si>
+  <si>
+    <t>Phan Ngọc Kiều Anh</t>
+  </si>
+  <si>
+    <t>Trần Huy Tín</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kiều Nhi</t>
+  </si>
+  <si>
+    <t>Lê Chí Khang</t>
   </si>
 </sst>
 </file>
@@ -1027,14 +1027,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF683D76-1A53-4812-8B90-9587B9E8F5DA}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="8.7265625" style="10"/>
-    <col min="3" max="3" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -1211,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1237,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1250,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1263,10 +1263,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -1276,10 +1276,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -1289,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1302,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1328,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1341,10 +1341,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1354,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1367,10 +1367,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1380,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1406,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1419,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1432,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1445,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1458,10 +1458,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1471,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1497,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1523,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1536,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1549,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1562,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1575,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1588,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1601,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -1614,10 +1614,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1627,10 +1627,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -1640,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1653,10 +1653,10 @@
         <v>1</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -1666,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1692,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1705,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1718,10 +1718,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1731,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1744,10 +1744,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1757,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1783,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1796,10 +1796,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -1809,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -1822,10 +1822,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1835,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1848,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -1874,10 +1874,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -1887,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -1900,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -1913,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -1926,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -1939,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -1952,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -1965,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -1978,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -1991,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2004,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2017,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -2030,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -2043,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -2056,10 +2056,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -2069,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -2082,10 +2082,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -2095,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
@@ -2108,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -2121,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -2134,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -2147,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -2160,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -2173,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -2186,10 +2186,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -2199,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -2225,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
